--- a/src/main/webapp/EXCEL/OutPutExcel.xlsx
+++ b/src/main/webapp/EXCEL/OutPutExcel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>比赛名称</t>
   </si>
@@ -41,58 +41,25 @@
     <t>教师工作量(基数*系数*学生数)</t>
   </si>
   <si>
-    <t>tess</t>
+    <t>类别插入的</t>
   </si>
   <si>
     <t>张三</t>
   </si>
   <si>
-    <t>成功类</t>
-  </si>
-  <si>
-    <t>三等</t>
-  </si>
-  <si>
-    <t>9.60</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>Tue Dec 10 21:07:38 CST 2019</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>44.16</t>
-  </si>
-  <si>
-    <t>比赛3</t>
-  </si>
-  <si>
-    <t>Tue Dec 24 21:07:52 CST 2019</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>22.08</t>
-  </si>
-  <si>
-    <t>成功的第一个比赛</t>
-  </si>
-  <si>
-    <t>奥特曼</t>
-  </si>
-  <si>
-    <t>Fri Dec 27 19:02:09 CST 2019</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Fri Dec 27 20:47:18 CST 2019</t>
+    <t>B类</t>
+  </si>
+  <si>
+    <t>二等奖</t>
+  </si>
+  <si>
+    <t>6.60</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>2019-12-30 17:56:02</t>
   </si>
   <si>
     <t>0</t>
@@ -101,28 +68,16 @@
     <t>0.0</t>
   </si>
   <si>
+    <t>牛逼了</t>
+  </si>
+  <si>
+    <t>2019-12-30 18:06:39</t>
+  </si>
+  <si>
     <t>为何这么牛逼</t>
   </si>
   <si>
-    <t>一等</t>
-  </si>
-  <si>
-    <t>的</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>Sat Dec 28 22:45:43 CST 2019</t>
-  </si>
-  <si>
-    <t>792.0</t>
-  </si>
-  <si>
-    <t>Mon Dec 30 11:42:59 CST 2019</t>
+    <t>2019-12-30 18:43:19</t>
   </si>
 </sst>
 </file>
@@ -254,18 +209,18 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -280,100 +235,13 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/EXCEL/OutPutExcel.xlsx
+++ b/src/main/webapp/EXCEL/OutPutExcel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>比赛名称</t>
   </si>
@@ -41,25 +41,40 @@
     <t>教师工作量(基数*系数*学生数)</t>
   </si>
   <si>
-    <t>类别插入的</t>
+    <t>a类北信科英语大赛</t>
   </si>
   <si>
     <t>张三</t>
   </si>
   <si>
-    <t>B类</t>
-  </si>
-  <si>
-    <t>二等奖</t>
+    <t>A类</t>
+  </si>
+  <si>
+    <t>一等奖</t>
+  </si>
+  <si>
+    <t>66.00</t>
   </si>
   <si>
     <t>6.60</t>
   </si>
   <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>2019-12-30 17:56:02</t>
+    <t>2019-12-30 19:54:20</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1306.8000000000002</t>
+  </si>
+  <si>
+    <t>北信科ACM</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>2019-12-30 20:49:56</t>
   </si>
   <si>
     <t>0</t>
@@ -68,16 +83,13 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>牛逼了</t>
-  </si>
-  <si>
-    <t>2019-12-30 18:06:39</t>
-  </si>
-  <si>
-    <t>为何这么牛逼</t>
-  </si>
-  <si>
-    <t>2019-12-30 18:43:19</t>
+    <t>2019-12-30 20:53:36</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>435.6</t>
   </si>
 </sst>
 </file>
@@ -191,7 +203,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -206,21 +218,21 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -235,13 +247,13 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
